--- a/res/excel/stage.xlsx
+++ b/res/excel/stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.5,1:1,0.5,1:1,0.5,1:2,1,2#1,0.5,1:1,0.5,1:1,0.5,1:2,1,2#1,0.5,1:1,0.5,1:1,0.5,1:2,1,2</t>
-  </si>
-  <si>
-    <t>1,0.5,1:1,0.5,1:1,0.5,1:2,1,2#1,0.5,1:1,0.5,1:1,0.5,1:2,1,2#1,0.5,1:1,0.5,1:1,0.5,1:2,1,2</t>
+    <t>1;0.5;1:1;0.5;1:1;0.5;1:2;1;1#1;0.5;1:1;0.5;1:1;0.5;1:2;1;1#1;0.5;1:1;0.5;1:1;0.5;1:2;1;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +426,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,14 +469,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -487,7 +484,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -495,7 +492,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
